--- a/biology/Microbiologie/Enchelyidae/Enchelyidae.xlsx
+++ b/biology/Microbiologie/Enchelyidae/Enchelyidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Enchelyidae sont une famille de Ciliés de la classe des Gymnostomatea et de l'ordre des Haptorida.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Enchelydium, formé de enchely-, par allusion au genre Enchelys, et du suffixe latin -ium, « relatif à », en référence à la ressemblance des deux genres.
-Quant au nom Enchelys lui-même, d'après Charles Orbigny on le doit à Muller qui créa ce genre en 1786 ; il est issu du grec εγχέλυς / enchélys, « anguille », en référence à la ressemblance de ce protozoaire avec le poisson[1]. 
+Quant au nom Enchelys lui-même, d'après Charles Orbigny on le doit à Muller qui créa ce genre en 1786 ; il est issu du grec εγχέλυς / enchélys, « anguille », en référence à la ressemblance de ce protozoaire avec le poisson. 
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kahl décrit ainsi le genre type : 
 « Le genre Enchelydium est très proche du genre Spathidium, il s'en distingue seulement par le fait que le bourrelet de la gorge, armé de trichocystes, s'écarte et devient ainsi un bourrelet annulaire entourant une fosse de section oblongue à circulaire. Les animaux donnent l'impression de nager la bouche ouverte, mais le gosier lui-même est fermé, comme le montre la coupe optique longitudinale. La brosse dorsale est toujours présente.Espèce type : Enchelydium fusidens.
-Ce genre se distingue du genre Enchelys, classé dans la famille des Holophryidae, qui a également une bouche terminale en forme de fente, précisément par le bourrelet qui manque à Enchelys[2]. »
+Ce genre se distingue du genre Enchelys, classé dans la famille des Holophryidae, qui a également une bouche terminale en forme de fente, précisément par le bourrelet qui manque à Enchelys. »
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (17 décembre 2022)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (17 décembre 2022) :
 Acaryophrya
 Apoenchelys
 Armatoenchelys Vdacný, 2007
@@ -634,9 +652,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Enchelyidae Ehrenberg, 1838[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Enchelyidae Ehrenberg, 1838.
 Kahl classe le genre type dans la famille des Spathidiidae.
 </t>
         </is>
